--- a/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Ireland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>100th Anniversary - 1st Meeting of Dáil Éireann</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -350,6 +356,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -376,9 +397,6 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -428,6 +446,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -803,48 +824,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
     <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -866,15 +887,19 @@
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="str">
+      <c r="G3" s="11" t="str">
         <f t="shared" ref="G3:G15" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -883,22 +908,22 @@
       <c r="A4" s="7">
         <v>2008</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="12" t="str">
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -910,15 +935,19 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="12" t="str">
+      <c r="G5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -927,22 +956,22 @@
       <c r="A6" s="7">
         <v>2010</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12" t="str">
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -951,22 +980,22 @@
       <c r="A7" s="7">
         <v>2011</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="12" t="str">
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -978,15 +1007,19 @@
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="12" t="str">
+      <c r="G8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -996,22 +1029,22 @@
       <c r="A9" s="7">
         <v>2013</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12" t="str">
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1021,22 +1054,22 @@
       <c r="A10" s="7">
         <v>2014</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="12" t="str">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1049,15 +1082,19 @@
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>0</v>
       </c>
-      <c r="G11" s="12" t="str">
+      <c r="G11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1069,15 +1106,19 @@
       <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="G12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1086,22 +1127,22 @@
       <c r="A13" s="7">
         <v>2017</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="12" t="str">
+      <c r="B13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1110,22 +1151,22 @@
       <c r="A14" s="7">
         <v>2018</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="12" t="str">
+      <c r="B14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1137,15 +1178,19 @@
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="12" t="str">
+      <c r="G15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1161,7 +1206,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
+  <conditionalFormatting sqref="F15 F3 F11:F12 F8 F5">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1288,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1300,79 +1345,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Ireland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -435,6 +435,9 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,9 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -828,33 +828,33 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -863,9 +863,9 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -880,14 +880,14 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2007</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -904,7 +904,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2008</v>
       </c>
@@ -928,14 +928,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2009</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -952,7 +952,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2010</v>
       </c>
@@ -976,7 +976,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2011</v>
       </c>
@@ -1000,14 +1000,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2012</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2013</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2014</v>
       </c>
@@ -1075,14 +1075,14 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2015</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -1092,21 +1092,21 @@
         <v>30</v>
       </c>
       <c r="F11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2016</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -1123,7 +1123,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2017</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2018</v>
       </c>
@@ -1171,14 +1171,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2019</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1206,7 +1206,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15 F3 F11:F12 F8 F5">
+  <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1337,14 +1337,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,36 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81383A67-3DF4-4402-9C6C-4637313E33D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -176,12 +186,21 @@
   </si>
   <si>
     <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>50th Anniversary - European Union Membership</t>
+  </si>
+  <si>
+    <t>500.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,9 +473,57 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -544,16 +611,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -821,30 +888,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -863,7 +930,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
@@ -880,7 +947,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2007</v>
       </c>
@@ -897,14 +964,14 @@
         <v>27</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11" t="str">
         <f t="shared" ref="G3:G15" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2008</v>
       </c>
@@ -928,7 +995,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2009</v>
       </c>
@@ -952,7 +1019,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2010</v>
       </c>
@@ -976,7 +1043,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2011</v>
       </c>
@@ -1000,7 +1067,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2012</v>
       </c>
@@ -1017,7 +1084,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1025,7 +1092,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2013</v>
       </c>
@@ -1050,7 +1117,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2014</v>
       </c>
@@ -1075,7 +1142,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2015</v>
       </c>
@@ -1099,7 +1166,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2016</v>
       </c>
@@ -1123,7 +1190,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2017</v>
       </c>
@@ -1147,7 +1214,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2018</v>
       </c>
@@ -1171,7 +1238,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2019</v>
       </c>
@@ -1188,10 +1255,130 @@
         <v>32</v>
       </c>
       <c r="F15" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G15" s="11" t="str">
         <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" ref="G16" si="1">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" ref="G17:G19" si="2">IF(OR(AND(F17&gt;1,F17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" ref="G20" si="3">IF(OR(AND(F20&gt;1,F20&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1202,11 +1389,101 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15 F3 F11:F12 F8 F5">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1218,9 +1495,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="F4">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -1233,9 +1510,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+  <conditionalFormatting sqref="F16:F17">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -1248,39 +1525,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -1293,10 +1540,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1308,10 +1557,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1330,21 +1581,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -1355,7 +1606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1366,7 +1617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1377,7 +1628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1388,7 +1639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1399,7 +1650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1410,7 +1661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1423,12 +1674,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81383A67-3DF4-4402-9C6C-4637313E33D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE4515F-FD60-470A-AE45-0E0F63FE8D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>500.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -475,14 +475,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="15">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -515,23 +516,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -618,9 +602,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -895,7 +879,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -916,17 +900,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -934,16 +918,16 @@
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -952,16 +936,16 @@
         <v>2007</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -976,19 +960,19 @@
         <v>2008</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1000,16 +984,16 @@
         <v>2009</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -1024,19 +1008,19 @@
         <v>2010</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1048,19 +1032,19 @@
         <v>2011</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1072,16 +1056,16 @@
         <v>2012</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -1097,19 +1081,19 @@
         <v>2013</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1122,19 +1106,19 @@
         <v>2014</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1147,16 +1131,16 @@
         <v>2015</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -1171,16 +1155,16 @@
         <v>2016</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
@@ -1195,19 +1179,19 @@
         <v>2017</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1219,19 +1203,19 @@
         <v>2018</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1243,16 +1227,16 @@
         <v>2019</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="10">
         <v>6</v>
@@ -1267,19 +1251,19 @@
         <v>2020</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" ref="G16" si="1">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
@@ -1291,19 +1275,19 @@
         <v>2021</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" ref="G17:G19" si="2">IF(OR(AND(F17&gt;1,F17&lt;&gt;"-")),"Can exchange","")</f>
@@ -1315,16 +1299,16 @@
         <v>2022</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
@@ -1339,16 +1323,16 @@
         <v>2023</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="F19" s="10">
         <v>0</v>
@@ -1363,19 +1347,19 @@
         <v>2024</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="11" t="str">
         <f t="shared" ref="G20" si="3">IF(OR(AND(F20&gt;1,F20&lt;&gt;"-")),"Can exchange","")</f>
@@ -1389,11 +1373,11 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15 F3 F11:F12 F8 F5">
+  <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1406,7 +1390,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -1421,7 +1405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -1436,7 +1420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -1451,7 +1435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -1466,7 +1450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -1481,7 +1465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -1496,7 +1480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -1511,7 +1495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F17">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -1526,7 +1510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -1541,7 +1525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1558,7 +1542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1597,13 +1581,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1611,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1622,10 +1606,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1633,10 +1617,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1644,10 +1628,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1655,10 +1639,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1666,10 +1650,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
